--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_7.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2861104200961899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994788834899225</v>
+        <v>-20.71836574409192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.3524288140031163</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997868020028311</v>
+        <v>0.06899947163376952</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7900654673576355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006820025737397373</v>
+        <v>0.832537055015564</v>
       </c>
       <c r="H2" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.340180039405823</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.071427702903748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_22</t>
+          <t>model_6_7_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936355747539209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.63330599719765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4169816092555553</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01594678367434144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7817373275756836</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135943055152893</v>
       </c>
       <c r="H3" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206584811210632</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.16918671131134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_21</t>
+          <t>model_6_7_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.293646072380482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.64976759569252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4172702995976494</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01599230460750256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7817255854606628</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.136574149131775</v>
       </c>
       <c r="H4" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.205987453460693</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.169239044189453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_20</t>
+          <t>model_6_7_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936573808639946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.63894932779877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4172922906227431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01578255374672821</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7817131280899048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.136159420013428</v>
       </c>
       <c r="H5" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.205941915512085</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168997764587402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_19</t>
+          <t>model_6_7_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936672991305826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61881462435281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4170458351364441</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01563569913822316</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7817021608352661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135387659072876</v>
       </c>
       <c r="H6" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206451892852783</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168828845024109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_18</t>
+          <t>model_6_7_13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936696952189817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.63319621447905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4171845355096531</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01577270809494791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.781699538230896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135938882827759</v>
       </c>
       <c r="H7" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206164836883545</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168986320495605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_17</t>
+          <t>model_6_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.293674237002948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61239865751223</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4169567252692404</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.0155988093147108</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7816944718360901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135141611099243</v>
       </c>
       <c r="H8" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206636428833008</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.16878616809845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_16</t>
+          <t>model_6_7_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936783231671208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.63045433520266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.417020857645982</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01586221608339855</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7816900014877319</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135833740234375</v>
       </c>
       <c r="H9" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206503629684448</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.169089317321777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_15</t>
+          <t>model_6_7_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936819070626263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61186371646156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4169670539688231</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01558053167844897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.781686007976532</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.13512122631073</v>
       </c>
       <c r="H10" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206614971160889</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168765068054199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_14</t>
+          <t>model_6_7_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.293685701863993</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61565631148485</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4170242099855269</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01559823202190813</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7816817164421082</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135266423225403</v>
       </c>
       <c r="H11" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206496715545654</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168785691261292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_13</t>
+          <t>model_6_7_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2936879327453993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61199398288403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4169572762743158</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01558955257097128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7816793322563171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135126233100891</v>
       </c>
       <c r="H12" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206635236740112</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.16877555847168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_23</t>
+          <t>model_6_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937432894296195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.60943777429184</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4170695280031137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01545136136509528</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.781618058681488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135028123855591</v>
       </c>
       <c r="H13" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206402778625488</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168616652488708</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_12</t>
+          <t>model_6_7_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937557870186885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61402749529649</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4169045450822727</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01567287579028065</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7816042304039001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135203957557678</v>
       </c>
       <c r="H14" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206744313240051</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168871521949768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_10</t>
+          <t>model_6_7_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H15" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_9</t>
+          <t>model_6_7_22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H16" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_8</t>
+          <t>model_6_7_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H17" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_7</t>
+          <t>model_6_7_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H18" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_6</t>
+          <t>model_6_7_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H19" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_5</t>
+          <t>model_6_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H20" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_4</t>
+          <t>model_6_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.61143324553998</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168648533592783</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01565979146857499</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.135104656219482</v>
       </c>
       <c r="H21" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206826448440552</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168856620788574</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_3</t>
+          <t>model_6_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2938021818403691</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.56644883987209</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168013558586805</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01492105553264511</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815529108047485</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.133380174636841</v>
       </c>
       <c r="H22" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206957936286926</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.168006181716919</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_2</t>
+          <t>model_6_7_5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.293959056626457</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.52486020470613</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4163024135802945</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01460780359429514</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7813792824745178</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.131785869598389</v>
       </c>
       <c r="H23" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.207990407943726</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.167645812034607</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_1</t>
+          <t>model_6_7_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2940249804557391</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.50114154415257</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4168263442478815</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01374759917611157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7813063263893127</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.130876779556274</v>
       </c>
       <c r="H24" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.206906199455261</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.166655778884888</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_11</t>
+          <t>model_6_7_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2947497588672933</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.25215298862607</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4148217339790006</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.01105386850985091</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7805042266845703</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.121332287788391</v>
       </c>
       <c r="H25" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.211054801940918</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.163555860519409</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_24</t>
+          <t>model_6_7_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2953004926839563</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9994788834899225</v>
+        <v>-28.03010746835568</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999935996</v>
+        <v>0.4135456326766912</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997868020028311</v>
+        <v>-0.008216852243094985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7798947095870972</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0006820025737397373</v>
+        <v>1.112820386886597</v>
       </c>
       <c r="H26" t="n">
-        <v>5.195843755245733e-12</v>
+        <v>1.213695764541626</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003610601706895977</v>
+        <v>1.160290837287903</v>
       </c>
     </row>
   </sheetData>
